--- a/output/StructureDefinition-participation-questionnaire.xlsx
+++ b/output/StructureDefinition-participation-questionnaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +79,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -257,6 +257,9 @@
     <t>Observation[moodCode=DEF]</t>
   </si>
   <si>
+    <t>infrastructure.information</t>
+  </si>
+  <si>
     <t>Participation set of questions</t>
   </si>
   <si>
@@ -343,7 +346,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -401,6 +404,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -441,7 +448,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -539,10 +546,6 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
     <t>Questionnaire.title</t>
   </si>
   <si>
@@ -601,7 +604,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Definition.status</t>
@@ -650,7 +653,7 @@
     <t>One of the resource types defined as part of this version of FHIR.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.3.0</t>
   </si>
   <si>
     <t>Definition.subject[x]</t>
@@ -966,8 +969,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}</t>
+    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+que-1a:Group items must have nested items when Questionanire is complete {(type='group' and %resource.status='complete') implies item.empty().not()}que-1b:Groups should have items {type='group' implies item.empty().not()}que-1c:Display items cannot have child items {type='display' implies item.empty()}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 1 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1029,7 +1032,7 @@
     <t>This ''can'' be a meaningful identifier (e.g. a LOINC code) but is not intended to have any meaning.  GUIDs or sequential numbers are appropriate here.</t>
   </si>
   <si>
-    <t>[QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
+    <t>[QuestionnaireResponse](http://hl7.org/fhir/2021Mar/questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
   </si>
   <si>
     <t>.id</t>
@@ -1041,7 +1044,7 @@
     <t>ElementDefinition - details for the item</t>
   </si>
   <si>
-    <t>This element is a URI that refers to an [ElementDefinition](http://hl7.org/fhir/R4/elementdefinition.html) that provides information about this item, including information that might otherwise be included in the instance of the Questionnaire resource. A detailed description of the construction of the URI is shown in Comments, below. If this element is present then the following element values MAY be derived from the Element Definition if the corresponding elements of this Questionnaire resource instance have no value:
+    <t>This element is a URI that refers to an [ElementDefinition](http://hl7.org/fhir/2021Mar/elementdefinition.html) that provides information about this item, including information that might otherwise be included in the instance of the Questionnaire resource. A detailed description of the construction of the URI is shown in Comments, below. If this element is present then the following element values MAY be derived from the Element Definition if the corresponding elements of this Questionnaire resource instance have no value:
 * code (ElementDefinition.code) 
 * type (ElementDefinition.type) 
 * required (ElementDefinition.min) 
@@ -1051,7 +1054,7 @@
 * options (ElementDefinition.binding).</t>
   </si>
   <si>
-    <t>The uri refers to an ElementDefinition in a [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/R4/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/R4/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
+    <t>The uri refers to an ElementDefinition in a [StructureDefinition](http://hl7.org/fhir/2021Mar/structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/2021Mar/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/2021Mar/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
   </si>
   <si>
     <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition.</t>
@@ -1263,7 +1266,7 @@
     <t>Distinguishes groups from questions and display text and indicates data type for questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/item-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/item-type|4.3.0</t>
   </si>
   <si>
     <t>N/A - MIF rather than RIM level</t>
@@ -1284,8 +1287,8 @@
     <t>Allows questionnaires to adapt based on answers to other questions. E.g. If physical gender is specified as a male, no need to capture pregnancy history.  Also allows conditional display of instructions or groups of questions.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-7:If the operator is 'exists', the value must be a boolean {operator = 'exists' implies (answer is Boolean)}</t>
+    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+que-7:If the operator is 'exists', the value must be a boolean {operator = 'exists' implies (answer is boolean)}</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.id</t>
@@ -1321,7 +1324,7 @@
     <t>The criteria by which a question is enabled.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-operator|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-operator|4.3.0</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.answer[x]</t>
@@ -1359,7 +1362,7 @@
     <t>This element must be specified if more than one enableWhen value is provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-behavior|4.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">que-12
@@ -1457,7 +1460,7 @@
     <t>A reference to a value set containing a list of codes representing permitted answers for a "choice" or "open-choice" question.</t>
   </si>
   <si>
-    <t>LOINC defines many useful value sets for questionnaire responses. See [LOINC Answer Lists](http://hl7.org/fhir/R4/loinc.html#alist). The value may come from the ElementDefinition referred to by .definition.</t>
+    <t>LOINC defines many useful value sets for questionnaire responses. See [LOINC Answer Lists](http://hl7.org/fhir/2021Mar/loinc.html#alist). The value may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
     <t>que-4
@@ -1476,6 +1479,10 @@
     <t>This element can be used when the value set machinery of answerValueSet is deemed too cumbersome or when there's a need to capture possible answers that are not codes.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Fixed ICF answer set with Function.ICF.code.x inserted (x = {0, 1, 2, 3, 4, 8, 9}</t>
   </si>
   <si>
@@ -1578,8 +1585,8 @@
     <t>Reports can consist of complex nested groups.</t>
   </si>
   <si>
-    <t xml:space="preserve">que-1
-</t>
+    <t>que-1a
+que-1bque-1c</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target</t>
@@ -1911,7 +1918,7 @@
     <col min="31" max="31" width="44.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="13.51171875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="121.0546875" customWidth="true" bestFit="true"/>
@@ -2149,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -2158,12 +2165,12 @@
         <v>76</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2174,7 +2181,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -2183,19 +2190,19 @@
         <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2245,13 +2252,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2280,7 +2287,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2291,7 +2298,7 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -2300,16 +2307,16 @@
         <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2360,19 +2367,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2395,7 +2402,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2406,28 +2413,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2477,19 +2484,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2512,7 +2519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2523,7 +2530,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2535,16 +2542,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2570,13 +2577,13 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>76</v>
@@ -2594,19 +2601,19 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2629,18 +2636,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2652,16 +2659,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2711,25 +2718,25 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2746,11 +2753,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2769,16 +2776,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2828,7 +2835,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2840,13 +2847,13 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2863,11 +2870,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2886,16 +2893,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2945,7 +2952,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2957,13 +2964,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2980,11 +2987,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2997,25 +3004,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -3064,7 +3071,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3076,13 +3083,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -3099,7 +3106,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3110,7 +3117,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -3119,22 +3126,22 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -3183,28 +3190,28 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -3218,7 +3225,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3238,22 +3245,22 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -3302,7 +3309,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3314,19 +3321,19 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -3337,7 +3344,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3348,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -3357,19 +3364,19 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3419,28 +3426,28 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3461,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3465,7 +3472,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -3474,22 +3481,22 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3538,25 +3545,25 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3573,7 +3580,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3584,7 +3591,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3593,19 +3600,19 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3655,25 +3662,25 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3690,7 +3697,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3713,17 +3720,17 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3772,7 +3779,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3784,13 +3791,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3807,7 +3814,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3815,31 +3822,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3865,13 +3872,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3889,28 +3896,28 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3924,7 +3931,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3935,7 +3942,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3944,22 +3951,22 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -4008,28 +4015,28 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -4043,7 +4050,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4063,19 +4070,19 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4101,13 +4108,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4125,7 +4132,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -4137,13 +4144,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -4160,18 +4167,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4180,19 +4187,19 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4242,28 +4249,28 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4277,7 +4284,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4288,7 +4295,7 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -4297,22 +4304,22 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4361,28 +4368,28 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4396,7 +4403,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4416,19 +4423,19 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4478,7 +4485,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -4490,13 +4497,13 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4513,7 +4520,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4524,7 +4531,7 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4536,16 +4543,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4595,25 +4602,25 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4630,7 +4637,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4650,22 +4657,22 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4714,7 +4721,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4726,13 +4733,13 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4749,7 +4756,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4769,19 +4776,19 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4807,13 +4814,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4831,7 +4838,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4843,13 +4850,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4866,7 +4873,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4877,7 +4884,7 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4889,16 +4896,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4948,31 +4955,31 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4983,18 +4990,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -5006,17 +5013,17 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -5065,31 +5072,31 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5100,7 +5107,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5111,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -5123,16 +5130,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5182,31 +5189,31 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5217,7 +5224,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5228,7 +5235,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5240,19 +5247,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5301,31 +5308,31 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5336,7 +5343,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5347,7 +5354,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -5356,22 +5363,22 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5420,31 +5427,31 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5455,7 +5462,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5475,20 +5482,20 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5498,7 +5505,7 @@
         <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>76</v>
@@ -5513,13 +5520,13 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5537,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5549,13 +5556,13 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5572,7 +5579,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5595,16 +5602,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5654,7 +5661,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5663,16 +5670,16 @@
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5684,12 +5691,12 @@
         <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5700,7 +5707,7 @@
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5712,13 +5719,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5769,13 +5776,13 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5787,7 +5794,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5804,11 +5811,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5827,16 +5834,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5886,7 +5893,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5898,13 +5905,13 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5921,11 +5928,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5938,25 +5945,25 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6005,7 +6012,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -6017,13 +6024,13 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -6040,7 +6047,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6048,10 +6055,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -6063,19 +6070,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6124,25 +6131,25 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -6159,7 +6166,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6170,7 +6177,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -6182,19 +6189,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6243,25 +6250,25 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6278,7 +6285,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6301,19 +6308,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6338,11 +6345,11 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -6360,7 +6367,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6369,16 +6376,16 @@
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6395,7 +6402,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6406,7 +6413,7 @@
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6418,13 +6425,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6475,13 +6482,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6493,7 +6500,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6510,11 +6517,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6533,16 +6540,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6580,19 +6587,19 @@
         <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6604,13 +6611,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6627,7 +6634,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6638,7 +6645,7 @@
         <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6647,22 +6654,22 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -6711,25 +6718,25 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6738,7 +6745,7 @@
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6746,7 +6753,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6757,7 +6764,7 @@
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6766,19 +6773,19 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6828,25 +6835,25 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6855,7 +6862,7 @@
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6863,7 +6870,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6874,7 +6881,7 @@
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6883,20 +6890,20 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6945,25 +6952,25 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6972,15 +6979,15 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6991,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -7000,20 +7007,20 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -7062,25 +7069,25 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7089,15 +7096,15 @@
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7108,7 +7115,7 @@
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -7117,22 +7124,22 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7181,25 +7188,25 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7208,7 +7215,7 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -7216,18 +7223,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -7239,19 +7246,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7300,25 +7307,25 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7335,7 +7342,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7346,7 +7353,7 @@
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -7358,16 +7365,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7417,25 +7424,25 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7452,7 +7459,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7460,10 +7467,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7475,19 +7482,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7512,13 +7519,13 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
@@ -7536,25 +7543,25 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7571,7 +7578,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7588,25 +7595,25 @@
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7655,7 +7662,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7667,13 +7674,13 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7690,7 +7697,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7701,7 +7708,7 @@
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7713,13 +7720,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7770,13 +7777,13 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7788,7 +7795,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7805,11 +7812,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7828,16 +7835,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7887,7 +7894,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7899,13 +7906,13 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7922,11 +7929,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7939,25 +7946,25 @@
         <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -8006,7 +8013,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -8018,13 +8025,13 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -8041,7 +8048,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8049,10 +8056,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -8064,16 +8071,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8123,25 +8130,25 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -8158,7 +8165,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8166,10 +8173,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -8181,13 +8188,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8214,13 +8221,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -8238,25 +8245,25 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -8273,7 +8280,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8281,10 +8288,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -8296,13 +8303,13 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8329,13 +8336,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8353,25 +8360,25 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -8388,7 +8395,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8399,7 +8406,7 @@
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8411,16 +8418,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8446,13 +8453,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8470,25 +8477,25 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8505,7 +8512,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8516,7 +8523,7 @@
         <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8528,23 +8535,23 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>76</v>
@@ -8589,25 +8596,25 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8624,7 +8631,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8635,7 +8642,7 @@
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8647,88 +8654,88 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8745,7 +8752,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8756,7 +8763,7 @@
         <v>74</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8768,19 +8775,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8829,25 +8836,25 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8864,7 +8871,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8875,7 +8882,7 @@
         <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8887,16 +8894,16 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8946,25 +8953,25 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8973,7 +8980,7 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -8981,7 +8988,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8992,7 +8999,7 @@
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -9004,16 +9011,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9063,25 +9070,25 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -9098,7 +9105,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9121,16 +9128,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9180,7 +9187,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9189,16 +9196,16 @@
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>468</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -9210,12 +9217,12 @@
         <v>76</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9226,7 +9233,7 @@
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -9238,13 +9245,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9295,13 +9302,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -9313,7 +9320,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9330,11 +9337,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9353,16 +9360,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9412,7 +9419,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9424,13 +9431,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9447,11 +9454,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9464,25 +9471,25 @@
         <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9531,7 +9538,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -9543,13 +9550,13 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9566,7 +9573,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9574,10 +9581,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9589,16 +9596,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9624,13 +9631,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9648,25 +9655,25 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9683,7 +9690,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9694,7 +9701,7 @@
         <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -9706,23 +9713,23 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q67" t="s" s="2">
         <v>76</v>
@@ -9767,25 +9774,25 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9802,7 +9809,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9825,19 +9832,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -9886,7 +9893,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9895,16 +9902,16 @@
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>468</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9921,7 +9928,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9932,7 +9939,7 @@
         <v>74</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9944,13 +9951,13 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10001,13 +10008,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -10019,7 +10026,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -10036,11 +10043,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10059,16 +10066,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10118,7 +10125,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -10130,13 +10137,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10153,11 +10160,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10170,25 +10177,25 @@
         <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -10237,7 +10244,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10249,13 +10256,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10272,7 +10279,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10280,10 +10287,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -10295,16 +10302,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10330,13 +10337,13 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10354,25 +10361,25 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10389,7 +10396,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10415,16 +10422,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10473,7 +10480,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10482,16 +10489,16 @@
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
